--- a/RPL_V2/xlsx/cup_128.xlsx
+++ b/RPL_V2/xlsx/cup_128.xlsx
@@ -3304,6 +3304,9 @@
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" t="s">
         <v>49</v>
       </c>
@@ -3314,7 +3317,7 @@
         <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
         <v>131</v>
